--- a/Scenario3_savepath/EFR_dem_SP.xlsx
+++ b/Scenario3_savepath/EFR_dem_SP.xlsx
@@ -541,10 +541,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-643.799999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-643.800000000001</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
